--- a/assest/20240626-东风电驱-延擎-X6000协议表.xlsx
+++ b/assest/20240626-东风电驱-延擎-X6000协议表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14040" windowHeight="8507" tabRatio="780" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="780" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本修订" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="432">
   <si>
     <t>同行者语音-车机项目需求接口协议</t>
   </si>
@@ -718,17 +718,6 @@
   <si>
     <t>媒体的类型的改变
 VIDEO/USB/BT/RADIO/NULL，分别对应视频、USB音乐、蓝牙音乐，收音机，无媒体播占据焦点</t>
-  </si>
-  <si>
-    <t>播放器状态</t>
-  </si>
-  <si>
-    <t>media.status</t>
-  </si>
-  <si>
-    <t>是否有播放器打开
-true：有播放器开着
-false：播放器关闭</t>
   </si>
   <si>
     <t>空调状态通知</t>
@@ -2645,7 +2634,7 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2691,31 +2680,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2764,9 +2732,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3220,51 +3185,51 @@
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:9">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:9">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:6">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="41">
         <v>45488</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
@@ -3304,234 +3269,234 @@
   </cols>
   <sheetData>
     <row r="1" ht="59.25" customHeight="1" spans="1:5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="39">
         <v>1000</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="35.1" customHeight="1" spans="1:6">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18">
         <v>1010</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18">
         <v>1030</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18">
         <v>1040</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18">
         <v>1050</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18">
         <v>1060</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18">
         <v>1061</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18">
         <v>1080</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18">
         <v>1090</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18">
         <v>1091</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18">
         <v>1110</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18">
         <v>2000</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18">
         <v>2010</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18">
         <v>2030</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18">
         <v>2040</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18">
         <v>2060</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18">
         <v>2080</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18">
         <v>2400</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="18" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3565,7 +3530,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="280.5" customHeight="1" spans="1:1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="37" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3581,1832 +3546,1832 @@
   <sheetPr/>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A48" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="35.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="28" customWidth="1"/>
-    <col min="2" max="2" width="13.8796296296296" style="28" customWidth="1"/>
-    <col min="3" max="3" width="37.8796296296296" style="28" customWidth="1"/>
-    <col min="4" max="4" width="9.87962962962963" style="28" customWidth="1"/>
-    <col min="5" max="5" width="26.75" style="28" customWidth="1"/>
-    <col min="6" max="6" width="8.62962962962963" style="28" customWidth="1"/>
-    <col min="7" max="7" width="10.6296296296296" style="28" customWidth="1"/>
-    <col min="8" max="8" width="29.3796296296296" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="14.75" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.8796296296296" style="21" customWidth="1"/>
+    <col min="3" max="3" width="37.8796296296296" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.87962962962963" style="21" customWidth="1"/>
+    <col min="5" max="5" width="26.75" style="21" customWidth="1"/>
+    <col min="6" max="6" width="8.62962962962963" style="21" customWidth="1"/>
+    <col min="7" max="7" width="10.6296296296296" style="21" customWidth="1"/>
+    <col min="8" max="8" width="29.3796296296296" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23">
         <v>1000</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="24">
         <v>1000</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="31" t="s">
+      <c r="D3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="31" t="s">
+      <c r="F3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" ht="113" customHeight="1" spans="1:8">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="31" t="s">
+      <c r="F5" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23">
         <v>1000</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="24">
         <v>1010</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="31" t="s">
+      <c r="D10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="31" t="s">
+      <c r="F10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="31" t="s">
+      <c r="F11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23">
         <v>1000</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" hidden="1" customHeight="1" spans="1:8">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="27">
         <v>1030</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="31" t="s">
+      <c r="D15" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="31" t="s">
+      <c r="F15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" ht="122.1" hidden="1" customHeight="1" spans="1:8">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" hidden="1" customHeight="1" spans="1:8">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="31" t="s">
+      <c r="D17" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="31" t="s">
+      <c r="F17" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" hidden="1" customHeight="1" spans="1:8">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="31" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="31" t="s">
+      <c r="D19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="31" t="s">
+      <c r="F19" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="31" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="31" t="s">
+      <c r="D20" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="31" t="s">
+      <c r="F20" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="31" t="s">
+      <c r="D21" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="31" t="s">
+      <c r="F21" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" ht="81" customHeight="1" spans="1:8">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" customHeight="1" spans="1:8">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23">
         <v>1000</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="24">
         <v>1040</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="31" t="s">
+      <c r="D26" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="31" t="s">
+      <c r="F26" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="31" t="s">
+      <c r="D27" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="31" t="s">
+      <c r="F27" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29" s="27" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A29" s="36" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" s="20" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A29" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-    </row>
-    <row r="30" s="27" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36">
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" s="20" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29">
         <v>1000</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" s="27" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A31" s="37" t="s">
+    <row r="31" s="20" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A31" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="30">
         <v>1050</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="37" t="s">
+      <c r="D31" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" s="27" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37" t="s">
+      <c r="F31" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" s="20" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" s="27" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37" t="s">
+      <c r="F32" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" s="20" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="38" t="s">
+      <c r="D33" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" s="27" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37" t="s">
+      <c r="F33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" s="20" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" s="27" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37" t="s">
+      <c r="F34" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" s="20" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" s="27" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37" t="s">
+      <c r="F35" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" s="20" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38" t="s">
+      <c r="D36" s="30"/>
+      <c r="E36" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" s="27" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
+      <c r="F36" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" s="20" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36" t="s">
+      <c r="E38" s="29"/>
+      <c r="F38" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
     </row>
     <row r="39" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29">
         <v>1000</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36" t="s">
+      <c r="C39" s="29"/>
+      <c r="D39" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="G39" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="36" t="s">
+      <c r="H39" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="30">
         <v>1060</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="37" t="s">
+      <c r="D40" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" s="37" t="s">
+      <c r="F40" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37" t="s">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37" t="s">
+      <c r="D41" s="30"/>
+      <c r="E41" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" s="37" t="s">
+      <c r="F41" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37" t="s">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37" t="s">
+      <c r="D42" s="30"/>
+      <c r="E42" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="37" t="s">
+      <c r="F42" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="43" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37" t="s">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37" t="s">
+      <c r="D43" s="30"/>
+      <c r="E43" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H43" s="37" t="s">
+      <c r="F43" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37" t="s">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37" t="s">
+      <c r="D44" s="30"/>
+      <c r="E44" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" s="37" t="s">
+      <c r="F44" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37" t="s">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37" t="s">
+      <c r="D45" s="30"/>
+      <c r="E45" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H45" s="37" t="s">
+      <c r="F45" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
     </row>
     <row r="47" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30" t="s">
+      <c r="E47" s="23"/>
+      <c r="F47" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
     </row>
     <row r="48" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23">
         <v>1000</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30" t="s">
+      <c r="C48" s="23"/>
+      <c r="D48" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="30" t="s">
+      <c r="G48" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="30" t="s">
+      <c r="H48" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="24">
         <v>1061</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="31" t="s">
+      <c r="D49" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F49" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H49" s="31" t="s">
+      <c r="F49" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="50" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31" t="s">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="31" t="s">
+      <c r="D50" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F50" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H50" s="31" t="s">
+      <c r="F50" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="51" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
     </row>
     <row r="52" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36" t="s">
+      <c r="E52" s="29"/>
+      <c r="F52" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
     </row>
     <row r="53" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29">
         <v>1000</v>
       </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36" t="s">
+      <c r="C53" s="29"/>
+      <c r="D53" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G53" s="36" t="s">
+      <c r="G53" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="36" t="s">
+      <c r="H53" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="40">
+      <c r="B54" s="30">
         <v>1080</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="37" t="s">
+      <c r="D54" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="F54" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G54" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H54" s="37" t="s">
+      <c r="F54" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40" t="s">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="40"/>
-      <c r="E55" s="37" t="s">
+      <c r="D55" s="30"/>
+      <c r="E55" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F55" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G55" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" s="37" t="s">
+      <c r="F55" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="56" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="37" t="s">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="37" t="s">
+      <c r="D56" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="F56" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G56" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H56" s="37" t="s">
+      <c r="F56" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37" t="s">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="37" t="s">
+      <c r="F57" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="G57" s="37" t="s">
+      <c r="G57" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H57" s="37" t="s">
+      <c r="H57" s="30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="58" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="37" t="s">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="37" t="s">
+      <c r="D58" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="F58" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G58" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58" s="37" t="s">
+      <c r="F58" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="59" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="37" t="s">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="37" t="s">
+      <c r="D59" s="30"/>
+      <c r="E59" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="F59" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G59" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H59" s="37" t="s">
+      <c r="F59" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="60" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="37" t="s">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="40"/>
-      <c r="E60" s="37" t="s">
+      <c r="D60" s="30"/>
+      <c r="E60" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="F60" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G60" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H60" s="37" t="s">
+      <c r="F60" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="61" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="37" t="s">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="D61" s="40"/>
-      <c r="E61" s="37" t="s">
+      <c r="D61" s="30"/>
+      <c r="E61" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F61" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G61" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H61" s="37" t="s">
+      <c r="F61" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="62" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="37" t="s">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="37" t="s">
+      <c r="D62" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
     </row>
     <row r="63" customFormat="1" ht="112" customHeight="1" spans="1:8">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37" t="s">
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="37" t="s">
+      <c r="F63" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G63" s="37" t="s">
+      <c r="G63" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H63" s="38" t="s">
+      <c r="H63" s="31" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="37" t="s">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="37" t="s">
+      <c r="D64" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="F64" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G64" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H64" s="37" t="s">
+      <c r="F64" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="65" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="37" t="s">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="37" t="s">
+      <c r="D65" s="30"/>
+      <c r="E65" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="F65" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G65" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H65" s="37" t="s">
+      <c r="F65" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="66" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="37" t="s">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="37" t="s">
+      <c r="D66" s="30"/>
+      <c r="E66" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="F66" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G66" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H66" s="37" t="s">
+      <c r="F66" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="67" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="37" t="s">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="D67" s="40"/>
-      <c r="E67" s="37" t="s">
+      <c r="D67" s="30"/>
+      <c r="E67" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="F67" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G67" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H67" s="37" t="s">
+      <c r="F67" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="68" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="37" t="s">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="37" t="s">
+      <c r="D68" s="30"/>
+      <c r="E68" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H68" s="37" t="s">
+      <c r="F68" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="69" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="37" t="s">
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="40"/>
-      <c r="E69" s="37" t="s">
+      <c r="D69" s="30"/>
+      <c r="E69" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="F69" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H69" s="37" t="s">
+      <c r="F69" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="70" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="37" t="s">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="40"/>
-      <c r="E70" s="37" t="s">
+      <c r="D70" s="30"/>
+      <c r="E70" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G70" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H70" s="37" t="s">
+      <c r="F70" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="71" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="37" t="s">
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="40"/>
-      <c r="E71" s="37" t="s">
+      <c r="D71" s="30"/>
+      <c r="E71" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G71" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H71" s="37" t="s">
+      <c r="F71" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="72" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A72" s="41"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
     </row>
     <row r="73" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36" t="s">
+      <c r="E73" s="29"/>
+      <c r="F73" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
     </row>
     <row r="74" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A74" s="36"/>
-      <c r="B74" s="36">
+      <c r="A74" s="29"/>
+      <c r="B74" s="29">
         <v>1000</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36" t="s">
+      <c r="C74" s="29"/>
+      <c r="D74" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E74" s="36" t="s">
+      <c r="E74" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="36" t="s">
+      <c r="F74" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G74" s="36" t="s">
+      <c r="G74" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H74" s="36" t="s">
+      <c r="H74" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="75" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="37">
+      <c r="B75" s="30">
         <v>1090</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C75" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" s="37" t="s">
+      <c r="D75" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G75" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H75" s="37" t="s">
+      <c r="F75" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="76" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37" t="s">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37" t="s">
+      <c r="D76" s="30"/>
+      <c r="E76" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="F76" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G76" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H76" s="37" t="s">
+      <c r="F76" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="77" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
     </row>
     <row r="78" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A78" s="36" t="s">
+      <c r="A78" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D78" s="36" t="s">
+      <c r="D78" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36" t="s">
+      <c r="E78" s="29"/>
+      <c r="F78" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
     </row>
     <row r="79" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A79" s="36"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36" t="s">
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E79" s="36" t="s">
+      <c r="E79" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F79" s="36" t="s">
+      <c r="F79" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G79" s="36" t="s">
+      <c r="G79" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H79" s="36" t="s">
+      <c r="H79" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B80" s="37">
+      <c r="B80" s="30">
         <v>1091</v>
       </c>
-      <c r="C80" s="37" t="s">
+      <c r="C80" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="D80" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E80" s="37" t="s">
+      <c r="D80" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="F80" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G80" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H80" s="37" t="s">
+      <c r="F80" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="81" customFormat="1" ht="65" customHeight="1" spans="1:8">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37" t="s">
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="E81" s="37" t="s">
+      <c r="E81" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F81" s="37" t="s">
+      <c r="F81" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G81" s="37" t="s">
+      <c r="G81" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H81" s="38" t="s">
+      <c r="H81" s="31" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="82" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A82" s="37"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37" t="s">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D82" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E82" s="37" t="s">
+      <c r="D82" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="F82" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G82" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H82" s="37" t="s">
+      <c r="F82" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="83" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37" t="s">
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="E83" s="37" t="s">
+      <c r="E83" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F83" s="37" t="s">
+      <c r="F83" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37" t="s">
+      <c r="G83" s="30"/>
+      <c r="H83" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="84" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A84" s="39"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
     </row>
     <row r="85" customHeight="1" spans="1:8">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D85" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30" t="s">
+      <c r="E85" s="23"/>
+      <c r="F85" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
     </row>
     <row r="86" customHeight="1" spans="1:8">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30" t="s">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E86" s="30" t="s">
+      <c r="E86" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F86" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G86" s="30" t="s">
+      <c r="G86" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H86" s="30" t="s">
+      <c r="H86" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:8">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31" t="s">
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D87" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E87" s="31" t="s">
+      <c r="D87" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="F87" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G87" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H87" s="42" t="s">
+      <c r="F87" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G87" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:19">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31" t="s">
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31" t="s">
+      <c r="E88" s="24"/>
+      <c r="F88" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G88" s="31" t="s">
+      <c r="G88" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H88" s="32" t="s">
+      <c r="H88" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="L88" s="44"/>
-      <c r="M88" s="44"/>
-      <c r="N88" s="44"/>
-      <c r="O88" s="44"/>
-      <c r="P88" s="44"/>
-      <c r="Q88" s="44"/>
-      <c r="R88" s="44"/>
-      <c r="S88" s="44"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
     </row>
     <row r="89" customHeight="1" spans="1:19">
-      <c r="A89" s="31"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31" t="s">
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D89" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E89" s="31" t="s">
+      <c r="D89" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="F89" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G89" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H89" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="L89" s="44"/>
-      <c r="M89" s="44"/>
-      <c r="N89" s="44"/>
-      <c r="O89" s="44"/>
-      <c r="P89" s="44"/>
-      <c r="Q89" s="44"/>
-      <c r="R89" s="44"/>
-      <c r="S89" s="44"/>
+      <c r="F89" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G89" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
     </row>
     <row r="90" customHeight="1" spans="1:19">
-      <c r="A90" s="31"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31" t="s">
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="D90" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E90" s="31" t="s">
+      <c r="D90" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F90" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G90" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H90" s="42" t="s">
+      <c r="F90" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G90" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" s="34" t="s">
         <v>45</v>
       </c>
       <c r="L90" s="7"/>
@@ -5419,20 +5384,20 @@
       <c r="S90" s="8"/>
     </row>
     <row r="91" customHeight="1" spans="1:19">
-      <c r="A91" s="31"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="42" t="s">
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="D91" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E91" s="31" t="s">
+      <c r="D91" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="F91" s="42"/>
-      <c r="G91" s="42"/>
-      <c r="H91" s="42"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
       <c r="L91" s="7"/>
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
@@ -5443,24 +5408,24 @@
       <c r="S91" s="7"/>
     </row>
     <row r="92" customHeight="1" spans="1:19">
-      <c r="A92" s="31"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="42" t="s">
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D92" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E92" s="42" t="s">
+      <c r="D92" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="F92" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G92" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H92" s="43" t="s">
+      <c r="F92" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G92" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" s="35" t="s">
         <v>167</v>
       </c>
       <c r="L92" s="7"/>
@@ -5473,24 +5438,24 @@
       <c r="S92" s="8"/>
     </row>
     <row r="93" customHeight="1" spans="1:19">
-      <c r="A93" s="31"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="42" t="s">
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D93" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E93" s="42" t="s">
+      <c r="D93" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F93" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G93" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H93" s="43"/>
+      <c r="F93" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G93" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" s="35"/>
       <c r="L93" s="7"/>
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
@@ -5501,24 +5466,24 @@
       <c r="S93" s="7"/>
     </row>
     <row r="94" customHeight="1" spans="1:19">
-      <c r="A94" s="31"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="42" t="s">
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E94" s="31" t="s">
+      <c r="D94" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="F94" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G94" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H94" s="43"/>
+      <c r="F94" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G94" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" s="35"/>
       <c r="L94" s="7"/>
       <c r="M94" s="8"/>
       <c r="N94" s="8"/>
@@ -5529,24 +5494,24 @@
       <c r="S94" s="8"/>
     </row>
     <row r="95" customHeight="1" spans="1:19">
-      <c r="A95" s="31"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="42" t="s">
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="D95" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E95" s="42" t="s">
+      <c r="D95" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="F95" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G95" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H95" s="43"/>
+      <c r="F95" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G95" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" s="35"/>
       <c r="L95" s="7"/>
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
@@ -5557,44 +5522,44 @@
       <c r="S95" s="7"/>
     </row>
     <row r="96" customHeight="1" spans="1:8">
-      <c r="A96" s="31"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="42" t="s">
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="D96" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E96" s="42" t="s">
+      <c r="D96" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="F96" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G96" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H96" s="43"/>
+      <c r="F96" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G96" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" s="35"/>
     </row>
     <row r="98" customHeight="1" spans="1:8">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="44"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
     </row>
     <row r="99" customHeight="1" spans="1:8">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
     </row>
     <row r="100" customHeight="1" spans="1:8">
       <c r="A100" s="7"/>
@@ -5784,10 +5749,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H662"/>
+  <dimension ref="A1:H660"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -5892,265 +5857,265 @@
       </c>
     </row>
     <row r="6" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="15">
         <v>2010</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="18" t="s">
+      <c r="F8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="9" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="11" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11">
         <v>1000</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="15">
         <v>2030</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="18" t="s">
+      <c r="F13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="14" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="15" ht="27.95" customHeight="1"/>
     <row r="16" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11">
         <v>1000</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="16">
         <v>2040</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="D18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="20" t="s">
+      <c r="F18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" ht="50" customHeight="1" spans="1:8">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="20" t="s">
+      <c r="F19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6198,490 +6163,456 @@
       </c>
     </row>
     <row r="23" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="15">
         <v>2060</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="20" t="s">
+      <c r="F23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" ht="92" customHeight="1" spans="1:8">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="13" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="25" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" ht="27.95" customHeight="1" spans="1:8">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" ht="27.95" customHeight="1" spans="1:8">
+      <c r="A27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" ht="27.95" customHeight="1" spans="1:8">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" ht="27.95" customHeight="1" spans="1:8">
+      <c r="A29" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="23" t="s">
+      <c r="B29" s="16">
+        <v>2080</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="23" t="s">
+      <c r="D29" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" ht="27.95" customHeight="1" spans="1:8">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F30" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-    </row>
-    <row r="28" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A29" s="10" t="s">
+      <c r="H30" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" ht="27.95" customHeight="1" spans="1:8">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" ht="60" customHeight="1" spans="1:8">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" ht="27.95" customHeight="1" spans="1:8">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" ht="27.95" customHeight="1" spans="1:8">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" ht="27.95" customHeight="1" spans="1:8">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" ht="117" customHeight="1" spans="1:8">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" ht="27.95" customHeight="1" spans="1:8">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" ht="48" customHeight="1" spans="1:8">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" ht="27.95" customHeight="1" spans="1:8">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" ht="49" customHeight="1" spans="1:8">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" ht="27.95" customHeight="1"/>
+    <row r="42" ht="27.95" customHeight="1" spans="1:8">
+      <c r="A42" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B42" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11" t="s">
+      <c r="E42" s="11"/>
+      <c r="F42" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11">
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" ht="27.95" customHeight="1" spans="1:8">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11">
         <v>1000</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F43" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G43" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H43" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A31" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="B31" s="20">
-        <v>2080</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A32" s="21"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A33" s="21"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" ht="60" customHeight="1" spans="1:8">
-      <c r="A34" s="21"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A35" s="21"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A36" s="21"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A37" s="21"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" ht="117" customHeight="1" spans="1:8">
-      <c r="A38" s="21"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A39" s="21"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" ht="48" customHeight="1" spans="1:8">
-      <c r="A40" s="21"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A41" s="21"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20" t="s">
+    <row r="44" ht="27.95" customHeight="1" spans="1:8">
+      <c r="A44" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="20" t="s">
+      <c r="B44" s="15">
+        <v>2400</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" ht="49" customHeight="1" spans="1:8">
-      <c r="A42" s="21"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" s="21" t="s">
+      <c r="D44" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="43" ht="27.95" customHeight="1"/>
-    <row r="44" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A44" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A46" s="21" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B46" s="21">
-        <v>2400</v>
-      </c>
-      <c r="C46" s="21" t="s">
+      <c r="D45" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="D46" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-    </row>
-    <row r="47" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
+      <c r="F45" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" ht="27.95" customHeight="1"/>
+    <row r="47" ht="27.95" customHeight="1"/>
     <row r="48" ht="27.95" customHeight="1"/>
     <row r="49" ht="27.95" customHeight="1"/>
     <row r="50" ht="27.95" customHeight="1"/>
@@ -7295,10 +7226,8 @@
     <row r="658" ht="27.95" customHeight="1"/>
     <row r="659" ht="27.95" customHeight="1"/>
     <row r="660" ht="27.95" customHeight="1"/>
-    <row r="661" ht="27.95" customHeight="1"/>
-    <row r="662" ht="27.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="60">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="D6:E6"/>
@@ -7309,10 +7238,10 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:H21"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A7"/>
@@ -7322,11 +7251,11 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A42"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B7"/>
@@ -7336,11 +7265,11 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B40"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C6:C7"/>
@@ -7350,15 +7279,14 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C42:C43"/>
     <mergeCell ref="H8:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7398,11 +7326,11 @@
         <v>34</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G1" s="5"/>
     </row>
@@ -7439,13 +7367,13 @@
         <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:7">
@@ -7458,13 +7386,13 @@
         <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1"/>
@@ -7479,11 +7407,11 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -7520,7 +7448,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>45</v>
@@ -7539,7 +7467,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>45</v>
@@ -7560,11 +7488,11 @@
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -7589,19 +7517,19 @@
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B13" s="1">
         <v>1020</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>45</v>
@@ -7614,13 +7542,13 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>45</v>
@@ -7633,13 +7561,13 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>45</v>
@@ -7652,13 +7580,13 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>45</v>
@@ -7679,11 +7607,11 @@
         <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -7720,7 +7648,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>45</v>
@@ -7739,7 +7667,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>45</v>
@@ -7752,13 +7680,13 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>45</v>
@@ -7771,13 +7699,13 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>45</v>
@@ -7798,11 +7726,11 @@
         <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -7839,7 +7767,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>45</v>
@@ -7858,7 +7786,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>45</v>
@@ -7871,32 +7799,32 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>45</v>
@@ -7909,13 +7837,13 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>45</v>
@@ -7928,13 +7856,13 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>45</v>
@@ -7947,13 +7875,13 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>45</v>
@@ -7966,13 +7894,13 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>45</v>
@@ -7999,11 +7927,11 @@
         <v>34</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -8040,7 +7968,7 @@
         <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>45</v>
@@ -8059,7 +7987,7 @@
         <v>43</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>45</v>
@@ -8072,38 +8000,38 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" ht="30" customHeight="1"/>
@@ -8118,11 +8046,11 @@
         <v>34</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G43" s="2"/>
     </row>
@@ -8153,13 +8081,13 @@
         <v>1060</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>45</v>
@@ -8178,7 +8106,7 @@
         <v>43</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>45</v>
@@ -8191,38 +8119,38 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:7">
@@ -8235,7 +8163,7 @@
         <v>43</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>45</v>
@@ -8248,13 +8176,13 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>45</v>
@@ -8267,13 +8195,13 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>45</v>
@@ -8286,13 +8214,13 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>45</v>
@@ -8305,13 +8233,13 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>45</v>
@@ -8324,13 +8252,13 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>45</v>
@@ -8343,13 +8271,13 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>45</v>
@@ -8362,19 +8290,19 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="57" ht="30" customHeight="1" spans="1:7">
@@ -8382,16 +8310,16 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1" spans="1:7">
@@ -8399,29 +8327,29 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="59" ht="30" customHeight="1" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>45</v>
@@ -8434,13 +8362,13 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>45</v>
@@ -8461,11 +8389,11 @@
         <v>34</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G62" s="2"/>
     </row>
@@ -8490,19 +8418,19 @@
     </row>
     <row r="64" ht="30" customHeight="1" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B64" s="1">
         <v>1070</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>45</v>
@@ -8515,13 +8443,13 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>45</v>
@@ -8542,11 +8470,11 @@
         <v>34</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G67" s="2"/>
     </row>
@@ -8571,7 +8499,7 @@
     </row>
     <row r="69" ht="30" customHeight="1" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B69" s="1">
         <v>1080</v>
@@ -8583,7 +8511,7 @@
         <v>43</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>45</v>
@@ -8602,7 +8530,7 @@
         <v>43</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>45</v>
@@ -8615,13 +8543,13 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>45</v>
@@ -8634,13 +8562,13 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>45</v>
@@ -8656,16 +8584,16 @@
         <v>115</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" ht="30" customHeight="1" spans="1:7">
@@ -8678,13 +8606,13 @@
         <v>43</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" ht="30" customHeight="1" spans="1:7">
@@ -8697,26 +8625,26 @@
         <v>43</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" ht="30" customHeight="1" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>45</v>
@@ -8729,13 +8657,13 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>45</v>
@@ -8748,13 +8676,13 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>45</v>
@@ -8767,13 +8695,13 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>45</v>
@@ -8786,13 +8714,13 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>45</v>
@@ -8805,13 +8733,13 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>45</v>
@@ -8830,7 +8758,7 @@
         <v>43</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>45</v>
@@ -8849,7 +8777,7 @@
         <v>43</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>45</v>
@@ -8862,13 +8790,13 @@
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>45</v>
@@ -8881,13 +8809,13 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>45</v>
@@ -8900,13 +8828,13 @@
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>45</v>
@@ -8919,13 +8847,13 @@
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>45</v>
@@ -8938,19 +8866,19 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" ht="30" customHeight="1"/>
@@ -8965,11 +8893,11 @@
         <v>34</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G90" s="2"/>
     </row>
@@ -8994,19 +8922,19 @@
     </row>
     <row r="92" ht="30" customHeight="1" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B92" s="1">
         <v>1100</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>45</v>
@@ -9710,11 +9638,11 @@
         <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -9739,19 +9667,19 @@
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B3" s="1">
         <v>2000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>45</v>
@@ -9762,30 +9690,30 @@
     </row>
     <row r="4" ht="30" customHeight="1" spans="3:7">
       <c r="C4" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="3:7">
       <c r="C5" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>45</v>
@@ -9796,59 +9724,59 @@
     </row>
     <row r="6" ht="27.95" customHeight="1" spans="3:7">
       <c r="C6" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" ht="27.95" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="8" ht="27.95" customHeight="1" spans="3:7">
       <c r="C8" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" ht="27.95" customHeight="1" spans="3:7">
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>45</v>
@@ -9859,74 +9787,74 @@
     </row>
     <row r="10" ht="27.95" customHeight="1" spans="3:7">
       <c r="C10" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" ht="27.95" customHeight="1" spans="4:5">
       <c r="D11" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" ht="27.95" customHeight="1" spans="5:5">
       <c r="E12" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" ht="27.95" customHeight="1" spans="5:5">
       <c r="E13" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" ht="27.95" customHeight="1" spans="5:5">
       <c r="E14" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" ht="27.95" customHeight="1" spans="5:5">
       <c r="E15" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" ht="27.95" customHeight="1" spans="3:7">
       <c r="C16" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="17" ht="27.95" customHeight="1" spans="7:7">
       <c r="G17" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" ht="27.95" customHeight="1" spans="7:7">
       <c r="G18" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="7:7">
@@ -9943,11 +9871,11 @@
         <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -9972,19 +9900,19 @@
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B22" s="1">
         <v>2010</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>45</v>
@@ -9995,13 +9923,13 @@
     </row>
     <row r="23" ht="30" customHeight="1" spans="3:7">
       <c r="C23" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>45</v>
@@ -10012,13 +9940,13 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C24" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>45</v>
@@ -10029,13 +9957,13 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C25" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>45</v>
@@ -10046,13 +9974,13 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C26" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>45</v>
@@ -10063,13 +9991,13 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C27" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>45</v>
@@ -10080,13 +10008,13 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C28" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>45</v>
@@ -10097,13 +10025,13 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C29" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>45</v>
@@ -10124,11 +10052,11 @@
         <v>34</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G31" s="2"/>
     </row>
@@ -10153,19 +10081,19 @@
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B33" s="1">
         <v>2020</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>45</v>
@@ -10176,10 +10104,10 @@
     </row>
     <row r="34" ht="30" customHeight="1" spans="3:7">
       <c r="C34" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>45</v>
@@ -10200,11 +10128,11 @@
         <v>34</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -10229,19 +10157,19 @@
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B38" s="1">
         <v>2030</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>45</v>
@@ -10252,10 +10180,10 @@
     </row>
     <row r="39" ht="30" customHeight="1" spans="3:7">
       <c r="C39" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>45</v>
@@ -10276,11 +10204,11 @@
         <v>34</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G41" s="2"/>
     </row>
@@ -10305,7 +10233,7 @@
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B43" s="1">
         <v>2030</v>
@@ -10317,7 +10245,7 @@
         <v>43</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>45</v>
@@ -10334,7 +10262,7 @@
         <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>45</v>
@@ -10345,13 +10273,13 @@
     </row>
     <row r="45" ht="30" customHeight="1" spans="3:7">
       <c r="C45" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>45</v>
@@ -10362,27 +10290,27 @@
     </row>
     <row r="46" ht="30" customHeight="1" spans="3:7">
       <c r="C46" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" spans="4:7">
       <c r="D47" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>45</v>
@@ -10393,27 +10321,27 @@
     </row>
     <row r="48" ht="30" customHeight="1" spans="3:7">
       <c r="C48" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="4:7">
       <c r="D49" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>45</v>
@@ -10424,13 +10352,13 @@
     </row>
     <row r="50" ht="30" customHeight="1" spans="3:7">
       <c r="C50" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>45</v>
@@ -10441,13 +10369,13 @@
     </row>
     <row r="51" ht="30" customHeight="1" spans="3:7">
       <c r="C51" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>45</v>
@@ -10458,13 +10386,13 @@
     </row>
     <row r="52" ht="30" customHeight="1" spans="3:7">
       <c r="C52" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>45</v>
@@ -10485,11 +10413,11 @@
         <v>34</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G54" s="2"/>
     </row>
@@ -10514,42 +10442,42 @@
     </row>
     <row r="56" ht="30" customHeight="1" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B56" s="1">
         <v>2080</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" ht="30" customHeight="1" spans="3:7">
       <c r="C57" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1"/>
@@ -10564,11 +10492,11 @@
         <v>34</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G59" s="2"/>
     </row>
@@ -10593,19 +10521,19 @@
     </row>
     <row r="61" ht="30" customHeight="1" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B61" s="1">
         <v>2100</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>45</v>
